--- a/src/Excel Merge/SM_02.xlsx
+++ b/src/Excel Merge/SM_02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Scaler\Java Programs\Excel-Merge\src\Excel Merge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB451DDC-7393-4A56-8D19-B19AB8405DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5564CC6D-1B1C-46DE-A7B4-305D9372070A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="name" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Id</t>
   </si>
@@ -37,10 +37,13 @@
     <t>Number</t>
   </si>
   <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>O</t>
+    <t>D.O.B</t>
+  </si>
+  <si>
+    <t>Srinivas Saroj</t>
+  </si>
+  <si>
+    <t>Biplab Majhi</t>
   </si>
 </sst>
 </file>
@@ -76,8 +79,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -358,36 +362,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>24381</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>28895</v>
       </c>
     </row>
   </sheetData>
@@ -399,7 +415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BBE68C4-4D43-4B30-9B72-F3A411A73556}">
   <dimension ref="A2:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
